--- a/converted/TB Patient Treatment Card Form_converted.xlsx
+++ b/converted/TB Patient Treatment Card Form_converted.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>maritalStatus_1</t>
+          <t>maritalStatus_4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>patientOccupation_2</t>
+          <t>patientOccupation_5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>healthCareWorker_3</t>
+          <t>healthCareWorker_6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>siteOfDisease_4</t>
+          <t>siteOfDisease_7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>typeOfPatient_5</t>
+          <t>typeOfPatient_8</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>siteOfExtrapulmonary_6</t>
+          <t>siteOfExtrapulmonary_9</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>nameOfContactPerson_7</t>
+          <t>nameOfContactPerson_10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>phoneNumber_8</t>
+          <t>phoneNumber_11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>address_9</t>
+          <t>address_12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>historyOfAntitbIntakeMoreThan1Month_10</t>
+          <t>historyOfAntitbIntakeMoreThan1Month_13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -917,7 +917,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>durationInWeeks_11</t>
+          <t>durationInWeeks_14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>noOfHouseholdContacts_12</t>
+          <t>noOfHouseholdContacts_15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>totalUnder5YearOldHouseholdContacts_13</t>
+          <t>totalUnder5YearOldHouseholdContacts_16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>under5Years_14</t>
+          <t>under5Years_17</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>sourceOfReferral_15</t>
+          <t>sourceOfReferral_18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>otherTbSourceOfReferral_16</t>
+          <t>otherTbSourceOfReferral_19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>smearMonth0_17</t>
+          <t>smearMonth0_20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>smearResult_18</t>
+          <t>smearResult_21</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>smearResult2_19</t>
+          <t>smearResult2_22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>smearResult3_20</t>
+          <t>smearResult3_23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>smearResult4_21</t>
+          <t>smearResult4_24</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>weightMonth0_22</t>
+          <t>weightMonth0_25</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>weight_23</t>
+          <t>weight_26</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>weight_24</t>
+          <t>weight_27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>weight2_25</t>
+          <t>weight2_28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>weight3_26</t>
+          <t>weight3_29</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>xpertResultDate_27</t>
+          <t>xpertResultDate_30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>result_28</t>
+          <t>result_31</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>xrayResultDate_29</t>
+          <t>xrayResultDate_32</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>result_30</t>
+          <t>result_33</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>afbLabSerialNo_31</t>
+          <t>afbLabSerialNo_34</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>afbResultDate_32</t>
+          <t>afbResultDate_35</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>smearResult_33</t>
+          <t>smearResult_36</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>typeOfSpecimen_34</t>
+          <t>typeOfSpecimen_37</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>resultDate_35</t>
+          <t>resultDate_38</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>result_36</t>
+          <t>result_39</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>otherTestsSpecify_37</t>
+          <t>otherTestsSpecify_40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>testDate_38</t>
+          <t>testDate_41</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>testResult_39</t>
+          <t>testResult_42</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>newlyTested_40</t>
+          <t>newlyTested_43</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>endOfTreatment_41</t>
+          <t>endOfTreatment_44</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>referral_42</t>
+          <t>referral_45</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>typeOfCareReferralDate_43</t>
+          <t>typeOfCareReferralDate_46</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>onArt_44</t>
+          <t>onArt_47</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>onCpt_45</t>
+          <t>onCpt_48</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cotrimoxazolePreventiveTherapyDate_46</t>
+          <t>cotrimoxazolePreventiveTherapyDate_49</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
